--- a/biology/Botanique/Flacourtioideae/Flacourtioideae.xlsx
+++ b/biology/Botanique/Flacourtioideae/Flacourtioideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Flacourtioideae forment une sous-famille de plantes à fleurs de la famille des Salicaceae. Elle a été proposée par le botaniste prussien Carl Traugott Beilschmied en 1833. Elle comprend 15 genres et 210 espèces[1]. Les genres classés dans cette sous-famille étaient pour la plupart classés dans la famille des Flacourtiaceae dans la classification de Cronquist. La famille des Flacourtiaceae est aujourd'hui éclatée par la classification phylogénétique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Flacourtioideae forment une sous-famille de plantes à fleurs de la famille des Salicaceae. Elle a été proposée par le botaniste prussien Carl Traugott Beilschmied en 1833. Elle comprend 15 genres et 210 espèces. Les genres classés dans cette sous-famille étaient pour la plupart classés dans la famille des Flacourtiaceae dans la classification de Cronquist. La famille des Flacourtiaceae est aujourd'hui éclatée par la classification phylogénétique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (16 décembre 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (16 décembre 2020) :
 Azara Ruiz &amp; Pav.
 Bennettiodendron Merr.
 Carrierea Franch.
@@ -529,7 +543,7 @@
 Poliothyrsis Oliv.
 Tisonia Baill.
 Xylosma J. R. Forst. &amp; G. Forst.
-Selon INPN      (26 décembre 2020)[2] (tribus et genres représentés en France, outre-mer compris) :
+Selon INPN      (26 décembre 2020) (tribus et genres représentés en France, outre-mer compris) :
 Tribu : Flacourtieae DC., 1824
 Genre : Dovyalis E.Mey. ex Arn., 1841
 Genre : Flacourtia Comm. ex L'Hér., 1786
